--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-default.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-default.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB95E6AF-769D-4DEB-B701-1D04CAAC5C23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC736F3-2D75-4F4A-9204-1F81EF77742C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="817" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="817" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="35" r:id="rId1"/>
@@ -27,14 +27,14 @@
     <sheet name="Transmittance_Range" sheetId="54" r:id="rId12"/>
     <sheet name="Dichroic" sheetId="49" r:id="rId13"/>
     <sheet name="Image" sheetId="39" r:id="rId14"/>
-    <sheet name="Pixels" sheetId="43" r:id="rId15"/>
-    <sheet name="Channel" sheetId="44" r:id="rId16"/>
-    <sheet name="Color" sheetId="45" r:id="rId17"/>
-    <sheet name="Light_Source_Settings" sheetId="55" r:id="rId18"/>
-    <sheet name="Detector_Settings" sheetId="57" r:id="rId19"/>
-    <sheet name="Lignt_Path" sheetId="56" r:id="rId20"/>
-    <sheet name="Binary_Data" sheetId="46" r:id="rId21"/>
-    <sheet name="Unit" sheetId="51" r:id="rId22"/>
+    <sheet name="Imaging_Condition" sheetId="63" r:id="rId15"/>
+    <sheet name="Pixels" sheetId="43" r:id="rId16"/>
+    <sheet name="Channel" sheetId="44" r:id="rId17"/>
+    <sheet name="Color" sheetId="45" r:id="rId18"/>
+    <sheet name="Light_Source_Settings" sheetId="55" r:id="rId19"/>
+    <sheet name="Detector_Settings" sheetId="57" r:id="rId20"/>
+    <sheet name="Lignt_Path" sheetId="56" r:id="rId21"/>
+    <sheet name="Binary_Data" sheetId="46" r:id="rId22"/>
     <sheet name="size" sheetId="62" r:id="rId23"/>
     <sheet name="distance" sheetId="61" r:id="rId24"/>
     <sheet name="frequency" sheetId="59" r:id="rId25"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="437">
   <si>
     <t/>
   </si>
@@ -333,9 +333,6 @@
     <t>:data</t>
   </si>
   <si>
-    <t>xsd:long</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -1288,41 +1285,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000299</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000106</t>
-  </si>
-  <si>
-    <t>UO:0000293</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000218</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>qudt:unit</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1332,34 +1298,6 @@
   </si>
   <si>
     <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1402,39 +1340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:MHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"mega-heltz"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"micro-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>距離</t>
     <rPh sb="0" eb="2">
       <t>キョリ</t>
@@ -1454,10 +1359,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SIO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1477,26 +1378,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:mW</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:mW</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"milli-watt"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000297</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000114</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>acquisitionMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1521,10 +1402,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detectorType:CCD</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1654,13 +1531,95 @@
   <si>
     <t>correction:UV</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Imaging Condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:ImagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[imagingCondition:0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imaging condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitPower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitPower#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitElectricPotential</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitElectricPotential#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitFrequency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitFrequency#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitFrequency:MHz</t>
+  </si>
+  <si>
+    <t>unitFrequency:Hz</t>
+  </si>
+  <si>
+    <t>unitElectricPotential:V</t>
+  </si>
+  <si>
+    <t>unitLength:nm</t>
+  </si>
+  <si>
+    <t>unitPower:mW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,13 +1648,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1729,7 +1681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1748,16 +1700,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2081,18 +2027,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2108,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2116,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2132,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2140,236 +2086,268 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>403</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -2385,50 +2363,50 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2441,86 +2419,86 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2535,46 +2513,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2586,134 +2564,134 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2728,40 +2706,40 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2772,125 +2750,125 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -2908,34 +2886,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2944,50 +2922,50 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3002,20 +2980,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3023,7 +3001,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3038,10 +3016,10 @@
         <v>62</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3057,13 +3035,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -3078,10 +3056,10 @@
         <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3089,7 +3067,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -3104,45 +3082,45 @@
         <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" t="s">
         <v>417</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3152,26 +3130,91 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931CC5FB-BEC4-48AD-A58B-5679351FD1F0}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C0CBC2-4968-4C18-8159-99B4929EB641}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3179,10 +3222,10 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>76</v>
@@ -3215,7 +3258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3233,49 +3276,49 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3283,19 +3326,19 @@
         <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -3313,30 +3356,30 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3354,10 +3397,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3367,27 +3410,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD9475-F076-4E6A-9ACB-779AC7096FAF}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3395,31 +3440,31 @@
         <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3433,37 +3478,37 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3471,123 +3516,57 @@
         <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99175A-F431-4336-BAFE-225D6A34D3D4}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-2147483648</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3597,91 +3576,63 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06949463-7C71-4A94-9607-1D90BA64370C}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99175A-F431-4336-BAFE-225D6A34D3D4}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.8</v>
+        <v>258</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-2147483648</v>
       </c>
     </row>
   </sheetData>
@@ -3691,51 +3642,39 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74332F01-B11F-46E8-BEAE-AF0FCC2D1D62}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06949463-7C71-4A94-9607-1D90BA64370C}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3743,81 +3682,51 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" t="s">
-        <v>413</v>
+        <v>385</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="E5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>345</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -3832,16 +3741,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3849,13 +3758,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3863,19 +3772,19 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3883,101 +3792,101 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3987,21 +3896,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54159E04-4463-49C2-AACD-BE9D64E30BA0}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74332F01-B11F-46E8-BEAE-AF0FCC2D1D62}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4009,55 +3922,107 @@
         <v>276</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>383</v>
+      </c>
+      <c r="D5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4067,91 +4032,77 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A649F06-EDFD-4850-A4D0-D86E0280363C}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54159E04-4463-49C2-AACD-BE9D64E30BA0}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="1">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>162</v>
+        <v>288</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4161,142 +4112,91 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086EC75-07D4-44D4-B6DF-F3C8419175A9}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A649F06-EDFD-4850-A4D0-D86E0280363C}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D8" t="s">
-        <v>395</v>
-      </c>
-      <c r="E8" t="s">
-        <v>396</v>
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4308,94 +4208,94 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F2A65-B8BB-490D-A830-7E81FF4684A8}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6">
         <v>1.5</v>
       </c>
-      <c r="D6" t="s">
-        <v>380</v>
+      <c r="D6" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4408,82 +4308,82 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1D26C5-F49A-4925-94AA-AE21BE3840B6}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>314</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>380</v>
+      <c r="D5" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4495,93 +4395,94 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E65B29-C365-4B98-954E-E0CEB9F96311}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5">
         <v>1.2</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6">
         <v>3200</v>
       </c>
-      <c r="D6" t="s">
-        <v>356</v>
+      <c r="D6" s="6" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4593,93 +4494,94 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05927945-84DF-481E-AF57-4A563B11C64A}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5">
         <v>120000</v>
       </c>
-      <c r="D5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6">
         <v>120</v>
       </c>
-      <c r="D6" t="s">
-        <v>358</v>
+      <c r="D6" s="6" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -4692,293 +4594,293 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFB8DEB-195F-4833-873B-F6E76BF9721E}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C5">
         <v>590.5</v>
       </c>
-      <c r="D5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6">
         <v>350</v>
       </c>
-      <c r="D6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7">
         <v>560</v>
       </c>
-      <c r="D7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8">
         <v>562</v>
       </c>
-      <c r="D8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D8" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9">
         <v>463</v>
       </c>
-      <c r="D9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D9" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10">
         <v>450</v>
       </c>
-      <c r="D10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D10" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11">
         <v>630</v>
       </c>
-      <c r="D11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C12">
         <v>633</v>
       </c>
-      <c r="D12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D12" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C13">
         <v>535</v>
       </c>
-      <c r="D13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D13" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D14" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D15" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D16" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C17">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D17" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C20">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21">
         <v>34</v>
       </c>
-      <c r="D21" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C22">
         <v>488.6</v>
       </c>
-      <c r="D22" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C23">
         <v>610.5</v>
       </c>
-      <c r="D23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C24">
         <v>510</v>
       </c>
-      <c r="D24" t="s">
-        <v>362</v>
+      <c r="D24" s="6" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4990,91 +4892,92 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355EA86A-E18C-476E-AF36-B96E82FDF5B6}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>392</v>
+      <c r="D6" s="7" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5089,18 +4992,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5108,19 +5011,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5130,25 +5033,25 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5156,33 +5059,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5197,15 +5100,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5216,7 +5119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5225,7 +5128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5234,7 +5137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5245,44 +5148,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5297,24 +5200,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5322,19 +5225,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
@@ -5343,16 +5246,16 @@
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5368,25 +5271,25 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>34</v>
@@ -5395,16 +5298,16 @@
         <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5412,19 +5315,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -5433,48 +5336,48 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="K5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5489,58 +5392,58 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5555,46 +5458,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5606,77 +5509,77 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G5" t="s">
         <v>197</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G5" t="s">
-        <v>198</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5691,42 +5594,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5737,28 +5640,28 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5766,39 +5669,39 @@
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5813,23 +5716,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5837,13 +5740,13 @@
         <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -5864,7 +5767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5879,19 +5782,19 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>51</v>
@@ -5912,7 +5815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5920,16 +5823,16 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -5947,33 +5850,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-default.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC736F3-2D75-4F4A-9204-1F81EF77742C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B781C2-1D34-4AA9-8AF9-99CFC315992D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="817" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="470">
   <si>
     <t/>
   </si>
@@ -391,10 +391,6 @@
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/AcquisitionMode#</t>
   </si>
   <si>
-    <t>image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plate</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -435,22 +431,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objective:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detector:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[microscope:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[laser:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -511,10 +491,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -579,10 +555,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:0.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -604,38 +576,6 @@
     <t>:Pump</t>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/image/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[arc:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filterSet:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[dichroic:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Dichroic</t>
   </si>
   <si>
@@ -710,10 +650,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pump:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Arc</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -877,10 +813,6 @@
     <t>:FilterType</t>
   </si>
   <si>
-    <t>[transmittanceRange:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Transmittance Range</t>
   </si>
   <si>
@@ -914,18 +846,6 @@
     <t>:cutIn</t>
   </si>
   <si>
-    <t>[transmittanceRange:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>filterType:bandPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -941,10 +861,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -964,10 +880,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[lightSourceSettings:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector settings</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1044,18 +956,6 @@
   </si>
   <si>
     <t>:Binning</t>
-  </si>
-  <si>
-    <t>[lightPath:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detectorSettings:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[lightPath:0]</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>binning</t>
@@ -1374,245 +1274,477 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/instrument/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/reagent/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/screen/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/plate/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorType:CCD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixel type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixelType:uint8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dimensionOrder:xyczt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Detector:0</t>
+  </si>
+  <si>
+    <t>binning:twoXTwo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LightSource:0</t>
+  </si>
+  <si>
+    <t>Channel:0.1</t>
+  </si>
+  <si>
+    <t>Pixels:0.0</t>
+  </si>
+  <si>
+    <t>Image:0</t>
+  </si>
+  <si>
+    <t>Dichroic:0</t>
+  </si>
+  <si>
+    <t>Standard Mk3</t>
+  </si>
+  <si>
+    <t>Filter:0</t>
+  </si>
+  <si>
+    <t>Model1</t>
+  </si>
+  <si>
+    <t>Disc A</t>
+  </si>
+  <si>
+    <t>Filter:1</t>
+  </si>
+  <si>
+    <t>Delux Mk4</t>
+  </si>
+  <si>
+    <t>Filter:2</t>
+  </si>
+  <si>
+    <t>Delux Mk5</t>
+  </si>
+  <si>
+    <t>Filter:3</t>
+  </si>
+  <si>
+    <t>Delux Mk6</t>
+  </si>
+  <si>
+    <t>FilterSet:0</t>
+  </si>
+  <si>
+    <t>Lot174-A</t>
+  </si>
+  <si>
+    <t>Objective:0</t>
+  </si>
+  <si>
+    <t>60xUV-Air</t>
+  </si>
+  <si>
+    <t>Standard CCD Mk2</t>
+  </si>
+  <si>
+    <t>LightSource:1</t>
+  </si>
+  <si>
+    <t>Arc60</t>
+  </si>
+  <si>
+    <t>A123456</t>
+  </si>
+  <si>
+    <t>Ruby60</t>
+  </si>
+  <si>
+    <t>A654321</t>
+  </si>
+  <si>
+    <t>Lab Mk3</t>
+  </si>
+  <si>
+    <t>L3-1234</t>
+  </si>
+  <si>
+    <t>Instrument:0</t>
+  </si>
+  <si>
+    <t>immersion:air</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>correction:UV</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Imaging Condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:ImagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imaging condition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitPower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitPower#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitElectricPotential</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitElectricPotential#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitFrequency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitFrequency#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitFrequency:MHz</t>
+  </si>
+  <si>
+    <t>unitFrequency:Hz</t>
+  </si>
+  <si>
+    <t>unitElectricPotential:V</t>
+  </si>
+  <si>
+    <t>unitLength:nm</t>
+  </si>
+  <si>
+    <t>unitPower:mW</t>
+  </si>
+  <si>
     <t>filterType</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>acquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/filterType/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/instrument/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/reagent/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/screen/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/plate/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>detectorType:CCD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixel type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>English Attribution</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>English Attribution</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixelType:uint8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dimensionOrder:xyczt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Detector:0</t>
-  </si>
-  <si>
-    <t>binning:twoXTwo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LightSource:0</t>
-  </si>
-  <si>
-    <t>Channel:0.1</t>
-  </si>
-  <si>
-    <t>Pixels:0.0</t>
-  </si>
-  <si>
-    <t>Image:0</t>
-  </si>
-  <si>
-    <t>Dichroic:0</t>
-  </si>
-  <si>
-    <t>Standard Mk3</t>
-  </si>
-  <si>
-    <t>Filter:0</t>
-  </si>
-  <si>
-    <t>Model1</t>
-  </si>
-  <si>
-    <t>Disc A</t>
-  </si>
-  <si>
-    <t>Filter:1</t>
-  </si>
-  <si>
-    <t>Delux Mk4</t>
-  </si>
-  <si>
-    <t>Filter:2</t>
-  </si>
-  <si>
-    <t>Delux Mk5</t>
-  </si>
-  <si>
-    <t>Filter:3</t>
-  </si>
-  <si>
-    <t>Delux Mk6</t>
-  </si>
-  <si>
-    <t>FilterSet:0</t>
-  </si>
-  <si>
-    <t>Lot174-A</t>
-  </si>
-  <si>
-    <t>Objective:0</t>
-  </si>
-  <si>
-    <t>60xUV-Air</t>
-  </si>
-  <si>
-    <t>Standard CCD Mk2</t>
-  </si>
-  <si>
-    <t>LightSource:1</t>
-  </si>
-  <si>
-    <t>Arc60</t>
-  </si>
-  <si>
-    <t>A123456</t>
-  </si>
-  <si>
-    <t>Ruby60</t>
-  </si>
-  <si>
-    <t>A654321</t>
-  </si>
-  <si>
-    <t>Lab Mk3</t>
-  </si>
-  <si>
-    <t>L3-1234</t>
-  </si>
-  <si>
-    <t>Instrument:0</t>
-  </si>
-  <si>
-    <t>immersion:air</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>correction:UV</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Imaging Condition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ImagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[imagingCondition:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>imaging condition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:imagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xsd:nonNegativeLong</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitLength</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitPower</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitPower#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitElectricPotential</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitElectricPotential#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitFrequency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitFrequency#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitTime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitLength:um</t>
-  </si>
-  <si>
-    <t>unitFrequency:MHz</t>
-  </si>
-  <si>
-    <t>unitFrequency:Hz</t>
-  </si>
-  <si>
-    <t>unitElectricPotential:V</t>
-  </si>
-  <si>
-    <t>unitLength:nm</t>
-  </si>
-  <si>
-    <t>unitPower:mW</t>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/FilterType#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microscope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/image/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/microscope/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/laser/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/pump/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/arc/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/detector/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/objective/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/filterSet/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/filter/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/transmittanceRange/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/dichroic/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/imagingCondition/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/lightSourceSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/detectorSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/lightPath/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-default/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microscope:microscope0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser:laser0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arc:arc0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector:detector0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet:filterSet0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic:dichroic0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pump:pump0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition:imagingCondition0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightSourceSettings:lightSourceSettings0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings:detectorSettings0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath0</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2027,14 +2159,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2104,47 +2236,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>98</v>
@@ -2192,7 +2324,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>109</v>
@@ -2200,154 +2332,290 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>291</v>
+        <v>409</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>393</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>395</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>113</v>
+      <c r="A32" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>141</v>
+      <c r="A33" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>423</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>424</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="6" t="s">
-        <v>425</v>
+      <c r="A37" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>426</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="6" t="s">
-        <v>427</v>
+      <c r="A38" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>428</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -2366,44 +2634,44 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -2425,25 +2693,25 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -2451,54 +2719,54 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>452</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>168</v>
+        <v>454</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2516,12 +2784,12 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -2531,25 +2799,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2570,22 +2838,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -2593,105 +2861,105 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>238</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>454</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>461</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>456</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>252</v>
+        <v>462</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2977,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -2721,22 +2989,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2756,19 +3024,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2776,19 +3044,19 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -2796,19 +3064,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>459</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
@@ -2816,19 +3084,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
@@ -2836,19 +3104,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>461</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
@@ -2856,19 +3124,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>462</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -2884,12 +3152,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433EC6F-7E29-4E46-9F7F-70AE9B8386A9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -2901,16 +3171,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2928,13 +3198,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2942,30 +3212,30 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2987,9 +3257,9 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3001,7 +3271,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3016,7 +3286,7 @@
         <v>62</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3041,7 +3311,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -3056,7 +3326,7 @@
         <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -3067,7 +3337,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -3082,45 +3352,45 @@
         <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3408,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3147,10 +3417,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3166,7 +3436,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3174,18 +3444,18 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3203,14 +3473,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3222,10 +3492,10 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>76</v>
@@ -3282,40 +3552,40 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -3326,19 +3596,19 @@
         <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -3356,30 +3626,30 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3397,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>157</v>
+        <v>465</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>257</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3414,20 +3684,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD9475-F076-4E6A-9ACB-779AC7096FAF}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -3440,28 +3708,28 @@
         <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -3484,28 +3752,28 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -3516,57 +3784,57 @@
         <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>465</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>263</v>
+        <v>467</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>289</v>
+        <v>468</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>290</v>
+        <v>469</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3594,10 +3862,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3613,7 +3881,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3624,12 +3892,12 @@
         <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3650,7 +3918,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -3662,16 +3930,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3689,13 +3957,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3703,13 +3971,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -3717,13 +3985,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>467</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -3746,7 +4014,7 @@
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3758,10 +4026,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3778,10 +4046,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3792,101 +4060,101 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +4172,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -3919,25 +4187,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3958,22 +4226,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -3981,13 +4249,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -3996,21 +4264,21 @@
         <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>468</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
@@ -4019,10 +4287,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4040,9 +4308,9 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -4051,13 +4319,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4074,10 +4342,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4085,24 +4353,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>469</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4176,7 +4444,7 @@
         <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -4187,7 +4455,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>466</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4196,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4227,13 +4495,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4241,13 +4509,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4256,10 +4524,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4267,35 +4535,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C6">
         <v>1.5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4326,13 +4594,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4340,13 +4608,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4355,10 +4623,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4366,24 +4634,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4414,13 +4682,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4428,13 +4696,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4443,10 +4711,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4454,35 +4722,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C5">
         <v>1.2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C6">
         <v>3200</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4513,13 +4781,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4527,13 +4795,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4542,10 +4810,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4553,35 +4821,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C5">
         <v>120000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C6">
         <v>120</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4614,13 +4882,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4628,13 +4896,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4643,10 +4911,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4654,233 +4922,233 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="C5">
         <v>590.5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="C6">
         <v>350</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>560</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C8">
         <v>562</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="C9">
         <v>463</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C10">
         <v>450</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C11">
         <v>630</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C12">
         <v>633</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C13">
         <v>535</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C15">
         <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C17">
         <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C20">
         <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C21">
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="C22">
         <v>488.6</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C23">
         <v>610.5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C24">
         <v>510</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4911,13 +5179,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4926,10 +5194,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4938,10 +5206,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4949,35 +5217,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +5263,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -5011,16 +5279,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5039,16 +5307,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5059,33 +5327,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5150,42 +5418,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5203,7 +5471,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -5211,7 +5479,7 @@
     <col min="7" max="7" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -5225,19 +5493,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
@@ -5246,13 +5514,13 @@
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -5277,19 +5545,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>34</v>
@@ -5298,13 +5566,13 @@
         <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -5315,19 +5583,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -5336,48 +5604,48 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>448</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>191</v>
+        <v>458</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5395,7 +5663,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -5405,10 +5673,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5424,7 +5692,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5432,18 +5700,18 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>458</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5461,7 +5729,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -5476,25 +5744,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5515,22 +5783,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5538,48 +5806,48 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>449</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5597,7 +5865,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -5608,25 +5876,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5646,19 +5914,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5669,39 +5937,39 @@
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>450</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +5987,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
@@ -5740,13 +6008,13 @@
         <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -5788,13 +6056,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>51</v>
@@ -5823,16 +6091,16 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -5852,31 +6120,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>451</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-default.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B781C2-1D34-4AA9-8AF9-99CFC315992D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB5BD7-9F04-4E75-AF6D-58497B15BC4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="817" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -52,10 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="470">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="471">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -123,24 +120,15 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
     <t>Microscope</t>
   </si>
   <si>
-    <t>:Microscope</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>Laser</t>
   </si>
   <si>
@@ -153,36 +141,15 @@
     <t>laser medium</t>
   </si>
   <si>
-    <t>:waveLength</t>
-  </si>
-  <si>
-    <t>:laserType</t>
-  </si>
-  <si>
-    <t>:laserMedium</t>
-  </si>
-  <si>
-    <t>:Laser</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:LaserType</t>
-  </si>
-  <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:LaserMedium</t>
-  </si>
-  <si>
     <t>Detector</t>
   </si>
   <si>
-    <t>:Detector</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -207,33 +174,6 @@
     <t>calibrated maginification</t>
   </si>
   <si>
-    <t>:workingDistance</t>
-  </si>
-  <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:correction</t>
-  </si>
-  <si>
-    <t>:lensNA</t>
-  </si>
-  <si>
-    <t>:immersion</t>
-  </si>
-  <si>
-    <t>:calibratedMagnification</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
-    <t>:Correction</t>
-  </si>
-  <si>
-    <t>:Immersion</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -243,18 +183,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -294,30 +222,12 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
@@ -327,12 +237,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -415,18 +319,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument:instrument0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -435,10 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -447,46 +339,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:serialNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>microscope type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:microscopeType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:MicroscopeType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>manufacturer</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -495,66 +359,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:float</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -573,15 +381,9 @@
     <t>Pump</t>
   </si>
   <si>
-    <t>:Pump</t>
-  </si>
-  <si>
     <t>Dichroic</t>
   </si>
   <si>
-    <t>:Dichroic</t>
-  </si>
-  <si>
     <t>microscopeType:inverted</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -614,10 +416,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:power</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>laserType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -642,34 +440,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pump</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pump</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Arc</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Arc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>arc type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:arcType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ArcType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>arcType:Xe</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -734,24 +512,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ExcitationFilter</t>
-  </si>
-  <si>
-    <t>:EmissionFilter</t>
-  </si>
-  <si>
-    <t>:FilterSet</t>
-  </si>
-  <si>
-    <t>:dichroic</t>
-  </si>
-  <si>
-    <t>:excitationFilter</t>
-  </si>
-  <si>
-    <t>:emissionFilter</t>
-  </si>
-  <si>
     <t>dichroic</t>
   </si>
   <si>
@@ -776,10 +536,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lotNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -792,27 +548,9 @@
     <t>filer type</t>
   </si>
   <si>
-    <t>:filterWheel</t>
-  </si>
-  <si>
-    <t>:transmittanceRange</t>
-  </si>
-  <si>
-    <t>:filterType</t>
-  </si>
-  <si>
-    <t>:Filter</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
-    <t>:TransmittanceRange</t>
-  </si>
-  <si>
-    <t>:FilterType</t>
-  </si>
-  <si>
     <t>Transmittance Range</t>
   </si>
   <si>
@@ -831,21 +569,6 @@
     <t>cut in</t>
   </si>
   <si>
-    <t>:cutOutTolerance</t>
-  </si>
-  <si>
-    <t>:cutInTolerance</t>
-  </si>
-  <si>
-    <t>:transmittance</t>
-  </si>
-  <si>
-    <t>:cutOut</t>
-  </si>
-  <si>
-    <t>:cutIn</t>
-  </si>
-  <si>
     <t>filterType:bandPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -869,17 +592,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lightSourceSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:LightSourceSettings</t>
-  </si>
-  <si>
-    <t>:LightSourceSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector settings</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -888,37 +600,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorSettings</t>
-  </si>
-  <si>
-    <t>:DetectorSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:lightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:LightPath</t>
-  </si>
-  <si>
-    <t>:LightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Light Source Settings</t>
   </si>
   <si>
     <t>attenuation</t>
   </si>
   <si>
-    <t>:attenuation</t>
-  </si>
-  <si>
     <t>Lignt Path</t>
   </si>
   <si>
@@ -940,24 +627,6 @@
     <t>gain</t>
   </si>
   <si>
-    <t>:binning</t>
-  </si>
-  <si>
-    <t>:voltage</t>
-  </si>
-  <si>
-    <t>:offset</t>
-  </si>
-  <si>
-    <t>:readOutRate</t>
-  </si>
-  <si>
-    <t>:gain</t>
-  </si>
-  <si>
-    <t>:Binning</t>
-  </si>
-  <si>
     <t>binning</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -969,10 +638,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:repetitionRate</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>repetition rate</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -985,10 +650,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:waveLength</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[power:300mW]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -997,10 +658,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:voltage</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[voltage:120000V]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1124,9 +781,6 @@
     <t>emission wavelength</t>
   </si>
   <si>
-    <t>:emissionWavelength</t>
-  </si>
-  <si>
     <t>[waveLength:488.6nm]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1135,18 +789,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:excitationWavelength</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[waveLength:610.5nm]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>pinhole size</t>
-  </si>
-  <si>
-    <t>:pinholeSize</t>
   </si>
   <si>
     <t>[size:1.5um]</t>
@@ -1302,10 +949,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>English Attribution</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1429,18 +1072,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ImagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>imaging condition</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:imagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1744,6 +1379,438 @@
   </si>
   <si>
     <t>lightPath:lightPath0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Microscope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:serialNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:microscopeType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:MicroscopeType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:power</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:repetitionRate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Arc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:arcType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ArcType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:voltage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:workingDistance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lensNA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:calibratedMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lotNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:emissionFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:EmissionFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:excitationFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ExcitationFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Filter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterWheel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TransmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutIn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutOut</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutInTolerance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutOutTolerance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:emissionWavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:excitationWavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pinholeSize</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:attenuation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Binning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:gain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:voltage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:readOutRate</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2172,450 +2239,450 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>340</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>282</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>284</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>342</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>338</v>
+        <v>234</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>341</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>343</v>
+        <v>239</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>395</v>
+        <v>288</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>397</v>
+        <v>290</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>398</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>401</v>
+        <v>294</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>402</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>347</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>346</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>345</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>344</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>431</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>413</v>
+        <v>306</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>432</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>433</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>434</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>435</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>436</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>438</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>439</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>422</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>423</v>
+        <v>316</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>440</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>441</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>442</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>443</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>427</v>
+        <v>320</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>444</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>428</v>
+        <v>321</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>445</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>429</v>
+        <v>322</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>446</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2638,45 +2705,45 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>353</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2689,84 +2756,84 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>210</v>
+        <v>403</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>202</v>
+        <v>404</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>201</v>
+        <v>406</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>200</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>199</v>
+        <v>402</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>452</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>453</v>
+        <v>346</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2787,8 +2854,8 @@
     <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
@@ -2796,33 +2863,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2834,132 +2901,132 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>215</v>
+        <v>411</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>216</v>
+        <v>412</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>217</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>410</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>221</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>453</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>459</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>455</v>
+        <v>348</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>462</v>
+        <v>355</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2979,37 +3046,38 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3020,63 +3088,63 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>416</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>229</v>
+        <v>418</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>228</v>
+        <v>419</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>230</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>220</v>
+        <v>413</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>459</v>
+        <v>352</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
@@ -3084,19 +3152,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
@@ -3104,19 +3172,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
@@ -3124,19 +3192,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>462</v>
+        <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -3152,9 +3220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433EC6F-7E29-4E46-9F7F-70AE9B8386A9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3168,24 +3234,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3194,48 +3260,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3265,41 +3331,41 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3307,90 +3373,90 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>422</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>424</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>423</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>463</v>
+        <v>356</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>464</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3414,48 +3480,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>136</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>464</v>
+        <v>357</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3475,9 +3541,9 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -3486,51 +3552,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3548,108 +3614,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>431</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>140</v>
+        <v>434</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>142</v>
+        <v>436</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>143</v>
+        <v>437</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>144</v>
+        <v>438</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>145</v>
+        <v>439</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>146</v>
+        <v>440</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>147</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>423</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>430</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>149</v>
+        <v>441</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>150</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>463</v>
+        <v>356</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3667,10 +3733,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>465</v>
+        <v>358</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>466</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3695,46 +3761,47 @@
     <col min="5" max="5" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3748,93 +3815,93 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>445</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>239</v>
+        <v>447</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>247</v>
+        <v>451</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>309</v>
+        <v>453</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>312</v>
+        <v>454</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>315</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>444</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>87</v>
+        <v>446</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>241</v>
+        <v>448</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>249</v>
+        <v>452</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>465</v>
+        <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>467</v>
+        <v>360</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>468</v>
+        <v>361</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>469</v>
+        <v>362</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3859,45 +3926,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>446</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3921,30 +3988,30 @@
     <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3953,45 +4020,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>457</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>252</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>240</v>
+        <v>456</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>467</v>
+        <v>360</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -4020,21 +4087,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4042,119 +4109,119 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>364</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>447</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>448</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>449</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>451</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>452</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>453</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>455</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4174,43 +4241,44 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4222,63 +4290,63 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>462</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>262</v>
+        <v>463</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>263</v>
+        <v>470</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>261</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>265</v>
+        <v>461</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>468</v>
+        <v>361</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
@@ -4287,15 +4355,16 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>319</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4309,28 +4378,28 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4338,39 +4407,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>202</v>
+        <v>404</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>469</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>455</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4387,34 +4456,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4423,39 +4492,39 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>467</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>392</v>
+        <v>285</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>466</v>
+        <v>359</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4464,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4492,78 +4561,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>325</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="C6">
         <v>1.5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4591,67 +4660,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>325</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>287</v>
+        <v>186</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4679,78 +4748,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>325</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="C5">
         <v>1.2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>404</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="C6">
         <v>3200</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>405</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4778,78 +4847,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>325</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="C5">
         <v>120000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>406</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c r="C6">
         <v>120</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>406</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4879,276 +4948,276 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>332</v>
+        <v>228</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>590.5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="C6">
         <v>350</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="C7">
         <v>560</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="C8">
         <v>562</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="C9">
         <v>463</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="C10">
         <v>450</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="C11">
         <v>630</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="C12">
         <v>633</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="C13">
         <v>535</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="C15">
         <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="C17">
         <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="C20">
         <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="C21">
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="C22">
         <v>488.6</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="C23">
         <v>610.5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="C24">
         <v>510</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5176,76 +5245,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5264,8 +5333,8 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5273,27 +5342,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5303,57 +5372,57 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>367</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>371</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>447</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5378,82 +5447,82 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5473,59 +5542,59 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5541,111 +5610,111 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>376</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>377</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>379</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>174</v>
+        <v>381</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>269</v>
+        <v>383</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>273</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>378</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>448</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5670,48 +5739,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>385</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>458</v>
+        <v>351</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5729,45 +5798,45 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5779,75 +5848,75 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>167</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>386</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>180</v>
+        <v>388</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>449</v>
+        <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5868,38 +5937,38 @@
     <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5910,66 +5979,66 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>277</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5990,54 +6059,54 @@
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6052,99 +6121,99 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>395</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>56</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>393</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>400</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>451</v>
+        <v>344</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>
